--- a/Objects/PGS7-0-48_20250821-BurnFile/PGS7_FW_ChangeNote.xlsx
+++ b/Objects/PGS7-0-48_20250821-BurnFile/PGS7_FW_ChangeNote.xlsx
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
